--- a/data/trans_dic/P10_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P10_1_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,41</t>
+          <t>1,39; 4,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,49</t>
+          <t>1,02; 3,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,19</t>
+          <t>1,19; 4,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,2</t>
+          <t>0,91; 7,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,53</t>
+          <t>1,48; 4,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,99</t>
+          <t>2,88; 6,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,28</t>
+          <t>1,76; 5,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 13,73</t>
+          <t>4,64; 13,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,02</t>
+          <t>1,71; 4,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,59</t>
+          <t>2,22; 4,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,07</t>
+          <t>1,75; 4,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,82</t>
+          <t>3,17; 8,48</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,72</t>
+          <t>2,1; 4,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,69</t>
+          <t>1,8; 4,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,51</t>
+          <t>2,9; 6,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,86</t>
+          <t>0,93; 4,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,63</t>
+          <t>5,49; 10,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,88</t>
+          <t>3,78; 7,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,65</t>
+          <t>3,22; 6,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,89</t>
+          <t>4,33; 9,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,48</t>
+          <t>3,95; 6,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,5</t>
+          <t>3,15; 5,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,98</t>
+          <t>3,35; 5,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,28</t>
+          <t>3,17; 6,58</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,33</t>
+          <t>2,65; 6,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,54</t>
+          <t>3,87; 7,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,71</t>
+          <t>3,26; 6,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,24</t>
+          <t>3,96; 8,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,83</t>
+          <t>5,09; 8,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,09; 14,15</t>
+          <t>9,16; 14,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,93</t>
+          <t>4,87; 8,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,72</t>
+          <t>4,46; 7,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,82</t>
+          <t>4,39; 6,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 10,23</t>
+          <t>7,03; 10,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,09</t>
+          <t>4,59; 7,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 7,26</t>
+          <t>4,52; 7,24</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,58</t>
+          <t>4,43; 8,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,4</t>
+          <t>4,91; 9,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,47</t>
+          <t>4,94; 9,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,57</t>
+          <t>4,59; 8,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 14,36</t>
+          <t>8,61; 14,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,62; 16,47</t>
+          <t>10,7; 16,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,15; 13,42</t>
+          <t>8,24; 13,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 12,86</t>
+          <t>7,73; 13,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 10,59</t>
+          <t>7,11; 10,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,26</t>
+          <t>8,45; 12,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 10,68</t>
+          <t>7,12; 10,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 9,9</t>
+          <t>6,5; 9,73</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,13</t>
+          <t>5,92; 11,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 12,86</t>
+          <t>6,94; 12,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,69; 9,21</t>
+          <t>4,8; 9,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,81</t>
+          <t>5,81; 10,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,31; 14,38</t>
+          <t>8,25; 14,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,61; 24,99</t>
+          <t>16,26; 24,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 21,81</t>
+          <t>14,29; 21,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,2; 15,75</t>
+          <t>11,38; 15,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,78; 11,8</t>
+          <t>7,77; 11,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,06; 17,94</t>
+          <t>12,77; 18,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,4; 14,57</t>
+          <t>10,53; 14,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,02; 11,97</t>
+          <t>8,92; 12,03</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,28; 17,37</t>
+          <t>11,3; 17,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,33; 20,18</t>
+          <t>13,47; 20,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,9; 12,85</t>
+          <t>8,08; 13,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,67; 11,44</t>
+          <t>7,65; 11,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,78; 19,44</t>
+          <t>14,01; 19,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,2; 32,16</t>
+          <t>25,04; 31,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,48; 28,4</t>
+          <t>21,54; 28,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,72; 22,23</t>
+          <t>13,23; 22,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,45; 17,64</t>
+          <t>13,41; 17,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,85; 25,71</t>
+          <t>20,96; 25,57</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,35; 20,86</t>
+          <t>16,38; 20,9</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,85; 16,91</t>
+          <t>12,38; 16,97</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,25; 6,93</t>
+          <t>5,29; 6,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,18</t>
+          <t>6,27; 8,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,26; 6,95</t>
+          <t>5,28; 6,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,35; 7,13</t>
+          <t>5,39; 7,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,46</t>
+          <t>8,56; 10,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,61; 15,89</t>
+          <t>13,39; 15,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,96; 13,47</t>
+          <t>11,09; 13,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,36; 12,72</t>
+          <t>10,25; 12,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,11; 8,48</t>
+          <t>7,09; 8,42</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,2; 11,76</t>
+          <t>10,19; 11,76</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,5; 9,9</t>
+          <t>8,55; 9,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,32; 9,82</t>
+          <t>8,35; 9,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P10_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P10_1_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,73</t>
+          <t>1,28; 4,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,64</t>
+          <t>1,03; 3,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,41</t>
+          <t>1,05; 4,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,49</t>
+          <t>1,52; 4,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,98</t>
+          <t>2,84; 6,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,23</t>
+          <t>1,52; 5,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,04</t>
+          <t>1,73; 3,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,48</t>
+          <t>2,2; 4,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,05</t>
+          <t>1,7; 4,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,8</t>
+          <t>2,19; 4,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,68</t>
+          <t>1,81; 4,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,29</t>
+          <t>2,76; 6,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,0</t>
+          <t>5,33; 9,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,95</t>
+          <t>3,88; 7,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,66</t>
+          <t>3,12; 6,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,47</t>
+          <t>4,1; 6,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,53</t>
+          <t>3,1; 5,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,9</t>
+          <t>3,48; 6,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,1</t>
+          <t>2,61; 6,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,58</t>
+          <t>3,89; 7,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,79</t>
+          <t>3,06; 6,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 8,77</t>
+          <t>4,96; 8,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,22</t>
+          <t>9,24; 14,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,71</t>
+          <t>4,97; 8,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 6,86</t>
+          <t>4,3; 6,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,17</t>
+          <t>7,08; 10,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,12</t>
+          <t>4,7; 7,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,82</t>
+          <t>4,32; 8,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,43</t>
+          <t>4,91; 9,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 9,1</t>
+          <t>5,08; 9,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 14,02</t>
+          <t>8,63; 14,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 16,72</t>
+          <t>10,71; 16,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 13,01</t>
+          <t>8,21; 13,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 10,63</t>
+          <t>7,1; 10,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,45; 12,09</t>
+          <t>8,51; 12,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,27</t>
+          <t>7,11; 10,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,15</t>
+          <t>5,69; 11,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 12,74</t>
+          <t>7,07; 13,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,74</t>
+          <t>4,58; 9,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 14,25</t>
+          <t>8,13; 14,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,26; 24,41</t>
+          <t>17,14; 24,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,29; 21,58</t>
+          <t>14,22; 21,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,77; 11,76</t>
+          <t>7,86; 12,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,77; 18,03</t>
+          <t>13,03; 18,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,53; 14,94</t>
+          <t>10,43; 14,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,3; 17,42</t>
+          <t>11,5; 17,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,47; 20,08</t>
+          <t>13,35; 20,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,08; 13,05</t>
+          <t>8,12; 12,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,01; 19,41</t>
+          <t>13,66; 19,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,04; 31,78</t>
+          <t>25,09; 31,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,54; 28,04</t>
+          <t>21,45; 28,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,41; 17,73</t>
+          <t>13,18; 17,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,96; 25,57</t>
+          <t>20,47; 25,42</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,38; 20,9</t>
+          <t>16,42; 20,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,29; 6,93</t>
+          <t>5,26; 6,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,11</t>
+          <t>6,27; 8,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 6,91</t>
+          <t>5,3; 6,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,56; 10,53</t>
+          <t>8,46; 10,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,39; 15,85</t>
+          <t>13,46; 15,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,09; 13,35</t>
+          <t>10,96; 13,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,09; 8,42</t>
+          <t>7,18; 8,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,55; 9,91</t>
+          <t>8,52; 10,05</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
